--- a/riskuy.xlsx
+++ b/riskuy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TL Pendanaan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F0FEEC9C-5D78-4819-8E03-A7188F08E23D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{26ED4672-4711-4488-86B6-8E6F3A1CC63E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -461,7 +461,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/riskuy.xlsx
+++ b/riskuy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TL Pendanaan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{26ED4672-4711-4488-86B6-8E6F3A1CC63E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A3E5AE57-519E-46A2-B1DF-84A91816B9C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -461,7 +461,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/riskuy.xlsx
+++ b/riskuy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TL Pendanaan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A3E5AE57-519E-46A2-B1DF-84A91816B9C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2029F92D-A98F-4295-88C9-7F7C737EED6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -461,7 +461,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/riskuy.xlsx
+++ b/riskuy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TL Pendanaan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2029F92D-A98F-4295-88C9-7F7C737EED6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D3527047-C2EC-411A-A246-911EA5872754}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -54,16 +54,16 @@
     <t>S2</t>
   </si>
   <si>
+    <t>Cpu_s2l</t>
+  </si>
+  <si>
+    <t>Kurni_s2l</t>
+  </si>
+  <si>
     <t>Xinghao_s2l</t>
   </si>
   <si>
-    <t>Cpu_s2l</t>
-  </si>
-  <si>
     <t>EDN_S2l</t>
-  </si>
-  <si>
-    <t>Kurni_s2l</t>
   </si>
   <si>
     <t>Hansyah_S2l</t>
@@ -461,7 +461,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -494,14 +494,14 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>1967291995</v>
+        <v>1398025598</v>
       </c>
       <c r="D2">
-        <v>178903573</v>
+        <v>131546058</v>
       </c>
       <c r="E2" s="1">
         <f>D2/C2</f>
-        <v>9.0939003185442235E-2</v>
+        <v>9.4094169797883778E-2</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -515,14 +515,14 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>1338468504</v>
+        <v>5020565466</v>
       </c>
       <c r="D3">
-        <v>121274235</v>
+        <v>463155262</v>
       </c>
       <c r="E3" s="1">
         <f t="shared" ref="E3:E8" si="0">D3/C3</f>
-        <v>9.0606715539120378E-2</v>
+        <v>9.2251612918217055E-2</v>
       </c>
       <c r="F3">
         <v>2</v>
@@ -536,14 +536,14 @@
         <v>9</v>
       </c>
       <c r="C4">
-        <v>1341892432</v>
+        <v>2053407690</v>
       </c>
       <c r="D4">
-        <v>120086555</v>
+        <v>188002626</v>
       </c>
       <c r="E4" s="1">
         <f t="shared" si="0"/>
-        <v>8.9490448068940298E-2</v>
+        <v>9.1556404953368031E-2</v>
       </c>
       <c r="F4">
         <v>3</v>
@@ -557,14 +557,14 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>4822277948</v>
+        <v>1388402014</v>
       </c>
       <c r="D5">
-        <v>424518461</v>
+        <v>126061788</v>
       </c>
       <c r="E5" s="1">
         <f t="shared" si="0"/>
-        <v>8.8032764925146126E-2</v>
+        <v>9.0796316001310551E-2</v>
       </c>
       <c r="F5">
         <v>4</v>
@@ -578,14 +578,14 @@
         <v>11</v>
       </c>
       <c r="C6">
-        <v>4929232601</v>
+        <v>5122108931</v>
       </c>
       <c r="D6">
-        <v>383608953</v>
+        <v>408187489</v>
       </c>
       <c r="E6" s="1">
         <f t="shared" si="0"/>
-        <v>7.7823260546109496E-2</v>
+        <v>7.9691294054597295E-2</v>
       </c>
       <c r="F6">
         <v>5</v>
@@ -599,14 +599,14 @@
         <v>12</v>
       </c>
       <c r="C7">
-        <v>2551176283</v>
+        <v>2667443011</v>
       </c>
       <c r="D7">
-        <v>184389996</v>
+        <v>200608692</v>
       </c>
       <c r="E7" s="1">
         <f t="shared" si="0"/>
-        <v>7.2276462127960295E-2</v>
+        <v>7.520636473683974E-2</v>
       </c>
       <c r="F7">
         <v>6</v>
@@ -620,14 +620,14 @@
         <v>13</v>
       </c>
       <c r="C8">
-        <v>4804184726</v>
+        <v>5003636165</v>
       </c>
       <c r="D8">
-        <v>347081491</v>
+        <v>375087415</v>
       </c>
       <c r="E8" s="1">
         <f t="shared" si="0"/>
-        <v>7.2245658898504234E-2</v>
+        <v>7.496296745628786E-2</v>
       </c>
       <c r="F8">
         <v>7</v>

--- a/riskuy.xlsx
+++ b/riskuy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TL Pendanaan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D3527047-C2EC-411A-A246-911EA5872754}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{37902910-AC7A-4D3B-94F0-7709263BBF2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -461,7 +461,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="E2" sqref="E2:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/riskuy.xlsx
+++ b/riskuy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TL Pendanaan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EF9F6867-BC39-4B9E-86CE-EC9F834A2296}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{06762962-C2E8-4110-AE58-7CE8144BB217}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,10 +57,10 @@
     <t>Cpu_s2l</t>
   </si>
   <si>
+    <t>Xinghao_s2l</t>
+  </si>
+  <si>
     <t>Kurni_s2l</t>
-  </si>
-  <si>
-    <t>Xinghao_s2l</t>
   </si>
   <si>
     <t>EDN_S2l</t>
@@ -461,10 +461,18 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -497,11 +505,11 @@
         <v>1398025598</v>
       </c>
       <c r="D2">
-        <v>131546058</v>
+        <v>142152999</v>
       </c>
       <c r="E2" s="1">
         <f>D2/C2</f>
-        <v>9.4094169797883778E-2</v>
+        <v>0.10168125619685542</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -515,14 +523,14 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>5020565466</v>
+        <v>2053407690</v>
       </c>
       <c r="D3">
-        <v>463155262</v>
+        <v>208243959</v>
       </c>
       <c r="E3" s="1">
         <f t="shared" ref="E3:E8" si="0">D3/C3</f>
-        <v>9.2251612918217055E-2</v>
+        <v>0.10141384003485446</v>
       </c>
       <c r="F3">
         <v>2</v>
@@ -536,14 +544,14 @@
         <v>9</v>
       </c>
       <c r="C4">
-        <v>2053407690</v>
+        <v>5020565466</v>
       </c>
       <c r="D4">
-        <v>188002626</v>
+        <v>503680243</v>
       </c>
       <c r="E4" s="1">
         <f t="shared" si="0"/>
-        <v>9.1556404953368031E-2</v>
+        <v>0.10032340906836011</v>
       </c>
       <c r="F4">
         <v>3</v>
@@ -560,11 +568,11 @@
         <v>1388402014</v>
       </c>
       <c r="D5">
-        <v>126061788</v>
+        <v>137532559</v>
       </c>
       <c r="E5" s="1">
         <f t="shared" si="0"/>
-        <v>9.0796316001310551E-2</v>
+        <v>9.9058167312626788E-2</v>
       </c>
       <c r="F5">
         <v>4</v>
@@ -581,11 +589,11 @@
         <v>5122108931</v>
       </c>
       <c r="D6">
-        <v>408187489</v>
+        <v>431227148</v>
       </c>
       <c r="E6" s="1">
         <f t="shared" si="0"/>
-        <v>7.9691294054597295E-2</v>
+        <v>8.4189374690985072E-2</v>
       </c>
       <c r="F6">
         <v>5</v>
@@ -602,11 +610,11 @@
         <v>2667443011</v>
       </c>
       <c r="D7">
-        <v>200608692</v>
+        <v>215797676</v>
       </c>
       <c r="E7" s="1">
         <f t="shared" si="0"/>
-        <v>7.520636473683974E-2</v>
+        <v>8.0900575986101175E-2</v>
       </c>
       <c r="F7">
         <v>6</v>
@@ -623,11 +631,11 @@
         <v>5003636165</v>
       </c>
       <c r="D8">
-        <v>375087415</v>
+        <v>398981630</v>
       </c>
       <c r="E8" s="1">
         <f t="shared" si="0"/>
-        <v>7.496296745628786E-2</v>
+        <v>7.9738337649496144E-2</v>
       </c>
       <c r="F8">
         <v>7</v>

--- a/riskuy.xlsx
+++ b/riskuy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TL Pendanaan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{06762962-C2E8-4110-AE58-7CE8144BB217}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{480157C9-932A-487A-9F2A-1FB35CE22758}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -461,18 +461,10 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.28515625" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">

--- a/riskuy.xlsx
+++ b/riskuy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TL Pendanaan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{480157C9-932A-487A-9F2A-1FB35CE22758}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B8116320-69E3-447D-AAE5-5CB9D329094C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -461,7 +461,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/riskuy.xlsx
+++ b/riskuy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TL Pendanaan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B8116320-69E3-447D-AAE5-5CB9D329094C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{455477C7-FD25-4701-9150-1093B4DEC10F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -461,7 +461,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/riskuy.xlsx
+++ b/riskuy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TL Pendanaan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{455477C7-FD25-4701-9150-1093B4DEC10F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{12E13C90-7BD3-4485-B84F-FAA585056286}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -54,16 +54,16 @@
     <t>S2</t>
   </si>
   <si>
+    <t>Xinghao_s2l</t>
+  </si>
+  <si>
+    <t>EDN_S2l</t>
+  </si>
+  <si>
     <t>Cpu_s2l</t>
   </si>
   <si>
-    <t>Xinghao_s2l</t>
-  </si>
-  <si>
     <t>Kurni_s2l</t>
-  </si>
-  <si>
-    <t>EDN_S2l</t>
   </si>
   <si>
     <t>Hansyah_S2l</t>
@@ -461,7 +461,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -494,14 +494,14 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>1398025598</v>
+        <v>2219432362</v>
       </c>
       <c r="D2">
-        <v>142152999</v>
+        <v>231288930</v>
       </c>
       <c r="E2" s="1">
         <f>D2/C2</f>
-        <v>0.10168125619685542</v>
+        <v>0.10421084866563733</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -515,14 +515,14 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>2053407690</v>
+        <v>1487395776</v>
       </c>
       <c r="D3">
-        <v>208243959</v>
+        <v>150411420</v>
       </c>
       <c r="E3" s="1">
         <f t="shared" ref="E3:E8" si="0">D3/C3</f>
-        <v>0.10141384003485446</v>
+        <v>0.10112400641912271</v>
       </c>
       <c r="F3">
         <v>2</v>
@@ -536,14 +536,14 @@
         <v>9</v>
       </c>
       <c r="C4">
-        <v>5020565466</v>
+        <v>1503074041</v>
       </c>
       <c r="D4">
-        <v>503680243</v>
+        <v>149033593</v>
       </c>
       <c r="E4" s="1">
         <f t="shared" si="0"/>
-        <v>0.10032340906836011</v>
+        <v>9.9152529372969186E-2</v>
       </c>
       <c r="F4">
         <v>3</v>
@@ -557,14 +557,14 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>1388402014</v>
+        <v>5424927775</v>
       </c>
       <c r="D5">
-        <v>137532559</v>
+        <v>530588991</v>
       </c>
       <c r="E5" s="1">
         <f t="shared" si="0"/>
-        <v>9.9058167312626788E-2</v>
+        <v>9.7805724427363461E-2</v>
       </c>
       <c r="F5">
         <v>4</v>
@@ -578,14 +578,14 @@
         <v>11</v>
       </c>
       <c r="C6">
-        <v>5122108931</v>
+        <v>5500251169</v>
       </c>
       <c r="D6">
-        <v>431227148</v>
+        <v>482558848</v>
       </c>
       <c r="E6" s="1">
         <f t="shared" si="0"/>
-        <v>8.4189374690985072E-2</v>
+        <v>8.7733965808643968E-2</v>
       </c>
       <c r="F6">
         <v>5</v>
@@ -599,14 +599,14 @@
         <v>12</v>
       </c>
       <c r="C7">
-        <v>2667443011</v>
+        <v>2889911911</v>
       </c>
       <c r="D7">
-        <v>215797676</v>
+        <v>232381599</v>
       </c>
       <c r="E7" s="1">
         <f t="shared" si="0"/>
-        <v>8.0900575986101175E-2</v>
+        <v>8.0411308772241674E-2</v>
       </c>
       <c r="F7">
         <v>6</v>
@@ -620,14 +620,14 @@
         <v>13</v>
       </c>
       <c r="C8">
-        <v>5003636165</v>
+        <v>5383097040</v>
       </c>
       <c r="D8">
-        <v>398981630</v>
+        <v>430019048</v>
       </c>
       <c r="E8" s="1">
         <f t="shared" si="0"/>
-        <v>7.9738337649496144E-2</v>
+        <v>7.9883205672249963E-2</v>
       </c>
       <c r="F8">
         <v>7</v>

--- a/riskuy.xlsx
+++ b/riskuy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TL Pendanaan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{12E13C90-7BD3-4485-B84F-FAA585056286}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{58AFE5B9-8B27-4F19-AEE0-EF31F90ACCB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -461,7 +461,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/riskuy.xlsx
+++ b/riskuy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TL Pendanaan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{58AFE5B9-8B27-4F19-AEE0-EF31F90ACCB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4E9BFBF9-1DEC-4E60-9833-8AA16919E638}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -461,7 +461,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/riskuy.xlsx
+++ b/riskuy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TL Pendanaan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4E9BFBF9-1DEC-4E60-9833-8AA16919E638}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8DE17761-6908-463F-9711-EDD6606A8BD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -461,7 +461,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/riskuy.xlsx
+++ b/riskuy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TL Pendanaan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8DE17761-6908-463F-9711-EDD6606A8BD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{19ED20FC-52CA-4B19-8DC6-490365034106}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,22 +57,22 @@
     <t>Xinghao_s2l</t>
   </si>
   <si>
+    <t>Cpu_s2l</t>
+  </si>
+  <si>
     <t>EDN_S2l</t>
   </si>
   <si>
-    <t>Cpu_s2l</t>
-  </si>
-  <si>
     <t>Kurni_s2l</t>
   </si>
   <si>
     <t>Hansyah_S2l</t>
   </si>
   <si>
+    <t>Zakka_S2l</t>
+  </si>
+  <si>
     <t>Mkm_s2l</t>
-  </si>
-  <si>
-    <t>Zakka_S2l</t>
   </si>
 </sst>
 </file>
@@ -494,14 +494,14 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>2219432362</v>
+        <v>2381643315</v>
       </c>
       <c r="D2">
-        <v>231288930</v>
+        <v>242870167</v>
       </c>
       <c r="E2" s="1">
         <f>D2/C2</f>
-        <v>0.10421084866563733</v>
+        <v>0.10197587752555634</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -515,14 +515,14 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>1487395776</v>
+        <v>1607161913</v>
       </c>
       <c r="D3">
-        <v>150411420</v>
+        <v>162736229</v>
       </c>
       <c r="E3" s="1">
         <f t="shared" ref="E3:E8" si="0">D3/C3</f>
-        <v>0.10112400641912271</v>
+        <v>0.10125689744366161</v>
       </c>
       <c r="F3">
         <v>2</v>
@@ -536,14 +536,14 @@
         <v>9</v>
       </c>
       <c r="C4">
-        <v>1503074041</v>
+        <v>1584501193</v>
       </c>
       <c r="D4">
-        <v>149033593</v>
+        <v>159704813</v>
       </c>
       <c r="E4" s="1">
         <f t="shared" si="0"/>
-        <v>9.9152529372969186E-2</v>
+        <v>0.10079185405826324</v>
       </c>
       <c r="F4">
         <v>3</v>
@@ -557,14 +557,14 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>5424927775</v>
+        <v>5792914645</v>
       </c>
       <c r="D5">
-        <v>530588991</v>
+        <v>572741703</v>
       </c>
       <c r="E5" s="1">
         <f t="shared" si="0"/>
-        <v>9.7805724427363461E-2</v>
+        <v>9.8869349558662445E-2</v>
       </c>
       <c r="F5">
         <v>4</v>
@@ -578,14 +578,14 @@
         <v>11</v>
       </c>
       <c r="C6">
-        <v>5500251169</v>
+        <v>5862807460</v>
       </c>
       <c r="D6">
-        <v>482558848</v>
+        <v>510783384</v>
       </c>
       <c r="E6" s="1">
         <f t="shared" si="0"/>
-        <v>8.7733965808643968E-2</v>
+        <v>8.7122660514592443E-2</v>
       </c>
       <c r="F6">
         <v>5</v>
@@ -599,14 +599,14 @@
         <v>12</v>
       </c>
       <c r="C7">
-        <v>2889911911</v>
+        <v>5760762686</v>
       </c>
       <c r="D7">
-        <v>232381599</v>
+        <v>476702979</v>
       </c>
       <c r="E7" s="1">
         <f t="shared" si="0"/>
-        <v>8.0411308772241674E-2</v>
+        <v>8.2749976866517985E-2</v>
       </c>
       <c r="F7">
         <v>6</v>
@@ -620,14 +620,14 @@
         <v>13</v>
       </c>
       <c r="C8">
-        <v>5383097040</v>
+        <v>3109986617</v>
       </c>
       <c r="D8">
-        <v>430019048</v>
+        <v>250030667</v>
       </c>
       <c r="E8" s="1">
         <f t="shared" si="0"/>
-        <v>7.9883205672249963E-2</v>
+        <v>8.0396058823297506E-2</v>
       </c>
       <c r="F8">
         <v>7</v>

--- a/riskuy.xlsx
+++ b/riskuy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TL Pendanaan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{19ED20FC-52CA-4B19-8DC6-490365034106}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1D7E84C8-CAAB-410E-BD57-442A8E38F90B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -461,7 +461,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/riskuy.xlsx
+++ b/riskuy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TL Pendanaan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1D7E84C8-CAAB-410E-BD57-442A8E38F90B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{489830A4-BF47-4D95-BFD1-F6E58FF06985}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -60,10 +60,10 @@
     <t>Cpu_s2l</t>
   </si>
   <si>
+    <t>Kurni_s2l</t>
+  </si>
+  <si>
     <t>EDN_S2l</t>
-  </si>
-  <si>
-    <t>Kurni_s2l</t>
   </si>
   <si>
     <t>Hansyah_S2l</t>
@@ -461,7 +461,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -494,14 +494,14 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>2381643315</v>
+        <v>2462401585</v>
       </c>
       <c r="D2">
-        <v>242870167</v>
+        <v>256164284</v>
       </c>
       <c r="E2" s="1">
         <f>D2/C2</f>
-        <v>0.10197587752555634</v>
+        <v>0.10403026279728454</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -515,14 +515,14 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>1607161913</v>
+        <v>1658736781</v>
       </c>
       <c r="D3">
-        <v>162736229</v>
+        <v>171937370</v>
       </c>
       <c r="E3" s="1">
         <f t="shared" ref="E3:E8" si="0">D3/C3</f>
-        <v>0.10125689744366161</v>
+        <v>0.10365560827339006</v>
       </c>
       <c r="F3">
         <v>2</v>
@@ -536,14 +536,14 @@
         <v>9</v>
       </c>
       <c r="C4">
-        <v>1584501193</v>
+        <v>5966177823</v>
       </c>
       <c r="D4">
-        <v>159704813</v>
+        <v>601636347</v>
       </c>
       <c r="E4" s="1">
         <f t="shared" si="0"/>
-        <v>0.10079185405826324</v>
+        <v>0.10084116914528647</v>
       </c>
       <c r="F4">
         <v>3</v>
@@ -557,14 +557,14 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>5792914645</v>
+        <v>1629709461</v>
       </c>
       <c r="D5">
-        <v>572741703</v>
+        <v>163243379</v>
       </c>
       <c r="E5" s="1">
         <f t="shared" si="0"/>
-        <v>9.8869349558662445E-2</v>
+        <v>0.10016716654503119</v>
       </c>
       <c r="F5">
         <v>4</v>
@@ -578,14 +578,14 @@
         <v>11</v>
       </c>
       <c r="C6">
-        <v>5862807460</v>
+        <v>6063602699</v>
       </c>
       <c r="D6">
-        <v>510783384</v>
+        <v>534260929</v>
       </c>
       <c r="E6" s="1">
         <f t="shared" si="0"/>
-        <v>8.7122660514592443E-2</v>
+        <v>8.8109487959709076E-2</v>
       </c>
       <c r="F6">
         <v>5</v>
@@ -599,14 +599,14 @@
         <v>12</v>
       </c>
       <c r="C7">
-        <v>5760762686</v>
+        <v>5934351328</v>
       </c>
       <c r="D7">
-        <v>476702979</v>
+        <v>506386477</v>
       </c>
       <c r="E7" s="1">
         <f t="shared" si="0"/>
-        <v>8.2749976866517985E-2</v>
+        <v>8.5331394959836798E-2</v>
       </c>
       <c r="F7">
         <v>6</v>
@@ -620,14 +620,14 @@
         <v>13</v>
       </c>
       <c r="C8">
-        <v>3109986617</v>
+        <v>3202314817</v>
       </c>
       <c r="D8">
-        <v>250030667</v>
+        <v>273083942</v>
       </c>
       <c r="E8" s="1">
         <f t="shared" si="0"/>
-        <v>8.0396058823297506E-2</v>
+        <v>8.527704414016081E-2</v>
       </c>
       <c r="F8">
         <v>7</v>

--- a/riskuy.xlsx
+++ b/riskuy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TL Pendanaan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{489830A4-BF47-4D95-BFD1-F6E58FF06985}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{09EACF62-71ED-44DC-AF85-BDFC303FD19C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -69,10 +69,10 @@
     <t>Hansyah_S2l</t>
   </si>
   <si>
+    <t>Mkm_s2l</t>
+  </si>
+  <si>
     <t>Zakka_S2l</t>
-  </si>
-  <si>
-    <t>Mkm_s2l</t>
   </si>
 </sst>
 </file>
@@ -461,7 +461,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="E2" sqref="E2:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -497,11 +497,11 @@
         <v>2462401585</v>
       </c>
       <c r="D2">
-        <v>256164284</v>
+        <v>261656214</v>
       </c>
       <c r="E2" s="1">
         <f>D2/C2</f>
-        <v>0.10403026279728454</v>
+        <v>0.10626057731359038</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -518,11 +518,11 @@
         <v>1658736781</v>
       </c>
       <c r="D3">
-        <v>171937370</v>
+        <v>174187509</v>
       </c>
       <c r="E3" s="1">
         <f t="shared" ref="E3:E8" si="0">D3/C3</f>
-        <v>0.10365560827339006</v>
+        <v>0.10501214598677185</v>
       </c>
       <c r="F3">
         <v>2</v>
@@ -539,11 +539,11 @@
         <v>5966177823</v>
       </c>
       <c r="D4">
-        <v>601636347</v>
+        <v>610382383</v>
       </c>
       <c r="E4" s="1">
         <f t="shared" si="0"/>
-        <v>0.10084116914528647</v>
+        <v>0.10230710533751385</v>
       </c>
       <c r="F4">
         <v>3</v>
@@ -560,11 +560,11 @@
         <v>1629709461</v>
       </c>
       <c r="D5">
-        <v>163243379</v>
+        <v>164000687</v>
       </c>
       <c r="E5" s="1">
         <f t="shared" si="0"/>
-        <v>0.10016716654503119</v>
+        <v>0.10063185550838501</v>
       </c>
       <c r="F5">
         <v>4</v>
@@ -581,11 +581,11 @@
         <v>6063602699</v>
       </c>
       <c r="D6">
-        <v>534260929</v>
+        <v>549534067</v>
       </c>
       <c r="E6" s="1">
         <f t="shared" si="0"/>
-        <v>8.8109487959709076E-2</v>
+        <v>9.0628310309748411E-2</v>
       </c>
       <c r="F6">
         <v>5</v>
@@ -599,14 +599,14 @@
         <v>12</v>
       </c>
       <c r="C7">
-        <v>5934351328</v>
+        <v>3202314817</v>
       </c>
       <c r="D7">
-        <v>506386477</v>
+        <v>278322637</v>
       </c>
       <c r="E7" s="1">
         <f t="shared" si="0"/>
-        <v>8.5331394959836798E-2</v>
+        <v>8.6912952943439481E-2</v>
       </c>
       <c r="F7">
         <v>6</v>
@@ -620,14 +620,14 @@
         <v>13</v>
       </c>
       <c r="C8">
-        <v>3202314817</v>
+        <v>5934351328</v>
       </c>
       <c r="D8">
-        <v>273083942</v>
+        <v>514764915</v>
       </c>
       <c r="E8" s="1">
         <f t="shared" si="0"/>
-        <v>8.527704414016081E-2</v>
+        <v>8.6743249017156937E-2</v>
       </c>
       <c r="F8">
         <v>7</v>

--- a/riskuy.xlsx
+++ b/riskuy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TL Pendanaan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{09EACF62-71ED-44DC-AF85-BDFC303FD19C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{70A04080-C62C-4493-A91B-3283A1A06923}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -54,12 +54,12 @@
     <t>S2</t>
   </si>
   <si>
+    <t>Cpu_s2l</t>
+  </si>
+  <si>
     <t>Xinghao_s2l</t>
   </si>
   <si>
-    <t>Cpu_s2l</t>
-  </si>
-  <si>
     <t>Kurni_s2l</t>
   </si>
   <si>
@@ -69,10 +69,10 @@
     <t>Hansyah_S2l</t>
   </si>
   <si>
+    <t>Zakka_S2l</t>
+  </si>
+  <si>
     <t>Mkm_s2l</t>
-  </si>
-  <si>
-    <t>Zakka_S2l</t>
   </si>
 </sst>
 </file>
@@ -494,14 +494,14 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>2462401585</v>
+        <v>1705546967</v>
       </c>
       <c r="D2">
-        <v>261656214</v>
+        <v>179546829</v>
       </c>
       <c r="E2" s="1">
         <f>D2/C2</f>
-        <v>0.10626057731359038</v>
+        <v>0.10527228652976756</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -515,14 +515,14 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>1658736781</v>
+        <v>2540164470</v>
       </c>
       <c r="D3">
-        <v>174187509</v>
+        <v>266165525</v>
       </c>
       <c r="E3" s="1">
         <f t="shared" ref="E3:E8" si="0">D3/C3</f>
-        <v>0.10501214598677185</v>
+        <v>0.10478279187961401</v>
       </c>
       <c r="F3">
         <v>2</v>
@@ -536,14 +536,14 @@
         <v>9</v>
       </c>
       <c r="C4">
-        <v>5966177823</v>
+        <v>6145029203</v>
       </c>
       <c r="D4">
-        <v>610382383</v>
+        <v>643182863</v>
       </c>
       <c r="E4" s="1">
         <f t="shared" si="0"/>
-        <v>0.10230710533751385</v>
+        <v>0.10466717760852925</v>
       </c>
       <c r="F4">
         <v>3</v>
@@ -557,14 +557,14 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>1629709461</v>
+        <v>1689163205</v>
       </c>
       <c r="D5">
-        <v>164000687</v>
+        <v>164348626</v>
       </c>
       <c r="E5" s="1">
         <f t="shared" si="0"/>
-        <v>0.10063185550838501</v>
+        <v>9.7295883259545662E-2</v>
       </c>
       <c r="F5">
         <v>4</v>
@@ -578,14 +578,14 @@
         <v>11</v>
       </c>
       <c r="C6">
-        <v>6063602699</v>
+        <v>6227337575</v>
       </c>
       <c r="D6">
-        <v>549534067</v>
+        <v>572049849</v>
       </c>
       <c r="E6" s="1">
         <f t="shared" si="0"/>
-        <v>9.0628310309748411E-2</v>
+        <v>9.1861062951930944E-2</v>
       </c>
       <c r="F6">
         <v>5</v>
@@ -599,14 +599,14 @@
         <v>12</v>
       </c>
       <c r="C7">
-        <v>3202314817</v>
+        <v>6093487702</v>
       </c>
       <c r="D7">
-        <v>278322637</v>
+        <v>534233622</v>
       </c>
       <c r="E7" s="1">
         <f t="shared" si="0"/>
-        <v>8.6912952943439481E-2</v>
+        <v>8.7672880971705947E-2</v>
       </c>
       <c r="F7">
         <v>6</v>
@@ -620,14 +620,14 @@
         <v>13</v>
       </c>
       <c r="C8">
-        <v>5934351328</v>
+        <v>3295574061</v>
       </c>
       <c r="D8">
-        <v>514764915</v>
+        <v>287693623</v>
       </c>
       <c r="E8" s="1">
         <f t="shared" si="0"/>
-        <v>8.6743249017156937E-2</v>
+        <v>8.7296967895390903E-2</v>
       </c>
       <c r="F8">
         <v>7</v>

--- a/riskuy.xlsx
+++ b/riskuy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TL Pendanaan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{70A04080-C62C-4493-A91B-3283A1A06923}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F5DC5EB0-9AA6-4206-80A6-FC177300E2E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -54,10 +54,10 @@
     <t>S2</t>
   </si>
   <si>
+    <t>Xinghao_s2l</t>
+  </si>
+  <si>
     <t>Cpu_s2l</t>
-  </si>
-  <si>
-    <t>Xinghao_s2l</t>
   </si>
   <si>
     <t>Kurni_s2l</t>
@@ -461,7 +461,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E8"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -494,14 +494,14 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>1705546967</v>
+        <v>2540164470</v>
       </c>
       <c r="D2">
-        <v>179546829</v>
+        <v>277031612</v>
       </c>
       <c r="E2" s="1">
         <f>D2/C2</f>
-        <v>0.10527228652976756</v>
+        <v>0.10906050189734368</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -515,14 +515,14 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>2540164470</v>
+        <v>1705546967</v>
       </c>
       <c r="D3">
-        <v>266165525</v>
+        <v>184313825</v>
       </c>
       <c r="E3" s="1">
         <f t="shared" ref="E3:E8" si="0">D3/C3</f>
-        <v>0.10478279187961401</v>
+        <v>0.1080672819724231</v>
       </c>
       <c r="F3">
         <v>2</v>
@@ -539,11 +539,11 @@
         <v>6145029203</v>
       </c>
       <c r="D4">
-        <v>643182863</v>
+        <v>663367261</v>
       </c>
       <c r="E4" s="1">
         <f t="shared" si="0"/>
-        <v>0.10466717760852925</v>
+        <v>0.10795184841044278</v>
       </c>
       <c r="F4">
         <v>3</v>
@@ -560,11 +560,11 @@
         <v>1689163205</v>
       </c>
       <c r="D5">
-        <v>164348626</v>
+        <v>171667734</v>
       </c>
       <c r="E5" s="1">
         <f t="shared" si="0"/>
-        <v>9.7295883259545662E-2</v>
+        <v>0.10162886184819542</v>
       </c>
       <c r="F5">
         <v>4</v>
@@ -581,11 +581,11 @@
         <v>6227337575</v>
       </c>
       <c r="D6">
-        <v>572049849</v>
+        <v>594832964</v>
       </c>
       <c r="E6" s="1">
         <f t="shared" si="0"/>
-        <v>9.1861062951930944E-2</v>
+        <v>9.5519627262217272E-2</v>
       </c>
       <c r="F6">
         <v>5</v>
@@ -602,11 +602,11 @@
         <v>6093487702</v>
       </c>
       <c r="D7">
-        <v>534233622</v>
+        <v>561131315</v>
       </c>
       <c r="E7" s="1">
         <f t="shared" si="0"/>
-        <v>8.7672880971705947E-2</v>
+        <v>9.2087051364003886E-2</v>
       </c>
       <c r="F7">
         <v>6</v>
@@ -623,11 +623,11 @@
         <v>3295574061</v>
       </c>
       <c r="D8">
-        <v>287693623</v>
+        <v>300291681</v>
       </c>
       <c r="E8" s="1">
         <f t="shared" si="0"/>
-        <v>8.7296967895390903E-2</v>
+        <v>9.1119688236919891E-2</v>
       </c>
       <c r="F8">
         <v>7</v>

--- a/riskuy.xlsx
+++ b/riskuy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TL Pendanaan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F5DC5EB0-9AA6-4206-80A6-FC177300E2E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F65B9BF1-C2B4-4201-81E9-E273EACD7F3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -461,7 +461,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/riskuy.xlsx
+++ b/riskuy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TL Pendanaan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F65B9BF1-C2B4-4201-81E9-E273EACD7F3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A86AB639-6D56-4ACF-8918-46BBFB1B8CC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -54,25 +54,25 @@
     <t>S2</t>
   </si>
   <si>
+    <t>Kurni_s2l</t>
+  </si>
+  <si>
     <t>Xinghao_s2l</t>
   </si>
   <si>
     <t>Cpu_s2l</t>
   </si>
   <si>
-    <t>Kurni_s2l</t>
-  </si>
-  <si>
     <t>EDN_S2l</t>
   </si>
   <si>
+    <t>Mkm_s2l</t>
+  </si>
+  <si>
     <t>Hansyah_S2l</t>
   </si>
   <si>
     <t>Zakka_S2l</t>
-  </si>
-  <si>
-    <t>Mkm_s2l</t>
   </si>
 </sst>
 </file>
@@ -461,7 +461,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="E2" sqref="E2:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -494,14 +494,14 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>2540164470</v>
+        <v>6832283586</v>
       </c>
       <c r="D2">
-        <v>277031612</v>
+        <v>724401376</v>
       </c>
       <c r="E2" s="1">
         <f>D2/C2</f>
-        <v>0.10906050189734368</v>
+        <v>0.10602624538073441</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -515,14 +515,14 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>1705546967</v>
+        <v>2817349113</v>
       </c>
       <c r="D3">
-        <v>184313825</v>
+        <v>294469421</v>
       </c>
       <c r="E3" s="1">
         <f t="shared" ref="E3:E8" si="0">D3/C3</f>
-        <v>0.1080672819724231</v>
+        <v>0.10452003255160661</v>
       </c>
       <c r="F3">
         <v>2</v>
@@ -536,14 +536,14 @@
         <v>9</v>
       </c>
       <c r="C4">
-        <v>6145029203</v>
+        <v>1872312028</v>
       </c>
       <c r="D4">
-        <v>663367261</v>
+        <v>192509595</v>
       </c>
       <c r="E4" s="1">
         <f t="shared" si="0"/>
-        <v>0.10795184841044278</v>
+        <v>0.10281918404681636</v>
       </c>
       <c r="F4">
         <v>3</v>
@@ -557,14 +557,14 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>1689163205</v>
+        <v>1866206765</v>
       </c>
       <c r="D5">
-        <v>171667734</v>
+        <v>182704064</v>
       </c>
       <c r="E5" s="1">
         <f t="shared" si="0"/>
-        <v>0.10162886184819542</v>
+        <v>9.790129766248061E-2</v>
       </c>
       <c r="F5">
         <v>4</v>
@@ -578,14 +578,14 @@
         <v>11</v>
       </c>
       <c r="C6">
-        <v>6227337575</v>
+        <v>3663615678</v>
       </c>
       <c r="D6">
-        <v>594832964</v>
+        <v>336547776</v>
       </c>
       <c r="E6" s="1">
         <f t="shared" si="0"/>
-        <v>9.5519627262217272E-2</v>
+        <v>9.1862194503907244E-2</v>
       </c>
       <c r="F6">
         <v>5</v>
@@ -599,14 +599,14 @@
         <v>12</v>
       </c>
       <c r="C7">
-        <v>6093487702</v>
+        <v>6908517958</v>
       </c>
       <c r="D7">
-        <v>561131315</v>
+        <v>627734875</v>
       </c>
       <c r="E7" s="1">
         <f t="shared" si="0"/>
-        <v>9.2087051364003886E-2</v>
+        <v>9.0863898569314538E-2</v>
       </c>
       <c r="F7">
         <v>6</v>
@@ -620,14 +620,14 @@
         <v>13</v>
       </c>
       <c r="C8">
-        <v>3295574061</v>
+        <v>6770867666</v>
       </c>
       <c r="D8">
-        <v>300291681</v>
+        <v>606553043</v>
       </c>
       <c r="E8" s="1">
         <f t="shared" si="0"/>
-        <v>9.1119688236919891E-2</v>
+        <v>8.9582764413756594E-2</v>
       </c>
       <c r="F8">
         <v>7</v>

--- a/riskuy.xlsx
+++ b/riskuy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TL Pendanaan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A86AB639-6D56-4ACF-8918-46BBFB1B8CC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3FAE78A7-1940-4960-AB49-3DD0C691AB29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -461,7 +461,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E8"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/riskuy.xlsx
+++ b/riskuy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TL Pendanaan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3FAE78A7-1940-4960-AB49-3DD0C691AB29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5ED9387F-1512-4935-A985-AAA6383071A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -461,7 +461,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/riskuy.xlsx
+++ b/riskuy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TL Pendanaan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5ED9387F-1512-4935-A985-AAA6383071A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{39A6B08D-5BBA-4433-AC77-DCC916E96F9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -461,7 +461,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -497,11 +497,11 @@
         <v>6832283586</v>
       </c>
       <c r="D2">
-        <v>724401376</v>
+        <v>760238652</v>
       </c>
       <c r="E2" s="1">
         <f>D2/C2</f>
-        <v>0.10602624538073441</v>
+        <v>0.11127153058426928</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -518,11 +518,11 @@
         <v>2817349113</v>
       </c>
       <c r="D3">
-        <v>294469421</v>
+        <v>307674510</v>
       </c>
       <c r="E3" s="1">
         <f t="shared" ref="E3:E8" si="0">D3/C3</f>
-        <v>0.10452003255160661</v>
+        <v>0.10920709420792325</v>
       </c>
       <c r="F3">
         <v>2</v>
@@ -539,11 +539,11 @@
         <v>1872312028</v>
       </c>
       <c r="D4">
-        <v>192509595</v>
+        <v>200375241</v>
       </c>
       <c r="E4" s="1">
         <f t="shared" si="0"/>
-        <v>0.10281918404681636</v>
+        <v>0.10702021778604949</v>
       </c>
       <c r="F4">
         <v>3</v>
@@ -560,11 +560,11 @@
         <v>1866206765</v>
       </c>
       <c r="D5">
-        <v>182704064</v>
+        <v>187022090</v>
       </c>
       <c r="E5" s="1">
         <f t="shared" si="0"/>
-        <v>9.790129766248061E-2</v>
+        <v>0.10021509594088306</v>
       </c>
       <c r="F5">
         <v>4</v>
@@ -581,11 +581,11 @@
         <v>3663615678</v>
       </c>
       <c r="D6">
-        <v>336547776</v>
+        <v>362590491</v>
       </c>
       <c r="E6" s="1">
         <f t="shared" si="0"/>
-        <v>9.1862194503907244E-2</v>
+        <v>9.8970668014484897E-2</v>
       </c>
       <c r="F6">
         <v>5</v>
@@ -602,11 +602,11 @@
         <v>6908517958</v>
       </c>
       <c r="D7">
-        <v>627734875</v>
+        <v>656856222</v>
       </c>
       <c r="E7" s="1">
         <f t="shared" si="0"/>
-        <v>9.0863898569314538E-2</v>
+        <v>9.5079179933138414E-2</v>
       </c>
       <c r="F7">
         <v>6</v>
@@ -623,11 +623,11 @@
         <v>6770867666</v>
       </c>
       <c r="D8">
-        <v>606553043</v>
+        <v>637943333</v>
       </c>
       <c r="E8" s="1">
         <f t="shared" si="0"/>
-        <v>8.9582764413756594E-2</v>
+        <v>9.4218845274947657E-2</v>
       </c>
       <c r="F8">
         <v>7</v>

--- a/riskuy.xlsx
+++ b/riskuy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TL Pendanaan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{39A6B08D-5BBA-4433-AC77-DCC916E96F9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7AC6D0D3-8309-4AD6-8CE7-CD10199FFD70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/riskuy.xlsx
+++ b/riskuy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TL Pendanaan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7AC6D0D3-8309-4AD6-8CE7-CD10199FFD70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ACF93337-CF2F-4E3E-89C2-16E1357E3B08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -461,7 +461,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E2" sqref="E2:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -494,14 +494,14 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>6832283586</v>
+        <v>7013179402</v>
       </c>
       <c r="D2">
-        <v>760238652</v>
+        <v>797738218</v>
       </c>
       <c r="E2" s="1">
         <f>D2/C2</f>
-        <v>0.11127153058426928</v>
+        <v>0.11374844022562763</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -515,14 +515,14 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>2817349113</v>
+        <v>2894233510</v>
       </c>
       <c r="D3">
-        <v>307674510</v>
+        <v>318676377</v>
       </c>
       <c r="E3" s="1">
         <f t="shared" ref="E3:E8" si="0">D3/C3</f>
-        <v>0.10920709420792325</v>
+        <v>0.11010734824917427</v>
       </c>
       <c r="F3">
         <v>2</v>
@@ -536,14 +536,14 @@
         <v>9</v>
       </c>
       <c r="C4">
-        <v>1872312028</v>
+        <v>1926715299</v>
       </c>
       <c r="D4">
-        <v>200375241</v>
+        <v>204210511</v>
       </c>
       <c r="E4" s="1">
         <f t="shared" si="0"/>
-        <v>0.10702021778604949</v>
+        <v>0.10598893936534834</v>
       </c>
       <c r="F4">
         <v>3</v>
@@ -557,14 +557,14 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>1866206765</v>
+        <v>1927371690</v>
       </c>
       <c r="D5">
-        <v>187022090</v>
+        <v>196916027</v>
       </c>
       <c r="E5" s="1">
         <f t="shared" si="0"/>
-        <v>0.10021509594088306</v>
+        <v>0.10216816404520293</v>
       </c>
       <c r="F5">
         <v>4</v>
@@ -578,14 +578,14 @@
         <v>11</v>
       </c>
       <c r="C6">
-        <v>3663615678</v>
+        <v>3776801802</v>
       </c>
       <c r="D6">
-        <v>362590491</v>
+        <v>377881831</v>
       </c>
       <c r="E6" s="1">
         <f t="shared" si="0"/>
-        <v>9.8970668014484897E-2</v>
+        <v>0.10005339194656528</v>
       </c>
       <c r="F6">
         <v>5</v>
@@ -599,14 +599,14 @@
         <v>12</v>
       </c>
       <c r="C7">
-        <v>6908517958</v>
+        <v>7133490408</v>
       </c>
       <c r="D7">
-        <v>656856222</v>
+        <v>693993467</v>
       </c>
       <c r="E7" s="1">
         <f t="shared" si="0"/>
-        <v>9.5079179933138414E-2</v>
+        <v>9.7286661550943801E-2</v>
       </c>
       <c r="F7">
         <v>6</v>
@@ -620,14 +620,14 @@
         <v>13</v>
       </c>
       <c r="C8">
-        <v>6770867666</v>
+        <v>6977967972</v>
       </c>
       <c r="D8">
-        <v>637943333</v>
+        <v>664489461</v>
       </c>
       <c r="E8" s="1">
         <f t="shared" si="0"/>
-        <v>9.4218845274947657E-2</v>
+        <v>9.5226785744266809E-2</v>
       </c>
       <c r="F8">
         <v>7</v>

--- a/riskuy.xlsx
+++ b/riskuy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TL Pendanaan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ACF93337-CF2F-4E3E-89C2-16E1357E3B08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0209F9DF-93A2-423C-B103-6DE09C4D21CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -60,13 +60,13 @@
     <t>Xinghao_s2l</t>
   </si>
   <si>
+    <t>Mkm_s2l</t>
+  </si>
+  <si>
     <t>Cpu_s2l</t>
   </si>
   <si>
     <t>EDN_S2l</t>
-  </si>
-  <si>
-    <t>Mkm_s2l</t>
   </si>
   <si>
     <t>Hansyah_S2l</t>
@@ -494,14 +494,14 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>7013179402</v>
+        <v>7233217270</v>
       </c>
       <c r="D2">
-        <v>797738218</v>
+        <v>831371019</v>
       </c>
       <c r="E2" s="1">
         <f>D2/C2</f>
-        <v>0.11374844022562763</v>
+        <v>0.1149379298266261</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -515,14 +515,14 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>2894233510</v>
+        <v>2985583999</v>
       </c>
       <c r="D3">
-        <v>318676377</v>
+        <v>337219452</v>
       </c>
       <c r="E3" s="1">
         <f t="shared" ref="E3:E8" si="0">D3/C3</f>
-        <v>0.11010734824917427</v>
+        <v>0.11294924279904676</v>
       </c>
       <c r="F3">
         <v>2</v>
@@ -536,14 +536,14 @@
         <v>9</v>
       </c>
       <c r="C4">
-        <v>1926715299</v>
+        <v>3893666823</v>
       </c>
       <c r="D4">
-        <v>204210511</v>
+        <v>417201143</v>
       </c>
       <c r="E4" s="1">
         <f t="shared" si="0"/>
-        <v>0.10598893936534834</v>
+        <v>0.10714864983711012</v>
       </c>
       <c r="F4">
         <v>3</v>
@@ -557,14 +557,14 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>1927371690</v>
+        <v>1991255199</v>
       </c>
       <c r="D5">
-        <v>196916027</v>
+        <v>212572570</v>
       </c>
       <c r="E5" s="1">
         <f t="shared" si="0"/>
-        <v>0.10216816404520293</v>
+        <v>0.10675305209837145</v>
       </c>
       <c r="F5">
         <v>4</v>
@@ -578,14 +578,14 @@
         <v>11</v>
       </c>
       <c r="C6">
-        <v>3776801802</v>
+        <v>1981408169</v>
       </c>
       <c r="D6">
-        <v>377881831</v>
+        <v>205479337</v>
       </c>
       <c r="E6" s="1">
         <f t="shared" si="0"/>
-        <v>0.10005339194656528</v>
+        <v>0.10370368923214024</v>
       </c>
       <c r="F6">
         <v>5</v>
@@ -599,14 +599,14 @@
         <v>12</v>
       </c>
       <c r="C7">
-        <v>7133490408</v>
+        <v>7356278731</v>
       </c>
       <c r="D7">
-        <v>693993467</v>
+        <v>735906523</v>
       </c>
       <c r="E7" s="1">
         <f t="shared" si="0"/>
-        <v>9.7286661550943801E-2</v>
+        <v>0.1000378791927535</v>
       </c>
       <c r="F7">
         <v>6</v>
@@ -620,14 +620,14 @@
         <v>13</v>
       </c>
       <c r="C8">
-        <v>6977967972</v>
+        <v>7173980429</v>
       </c>
       <c r="D8">
-        <v>664489461</v>
+        <v>692573827</v>
       </c>
       <c r="E8" s="1">
         <f t="shared" si="0"/>
-        <v>9.5226785744266809E-2</v>
+        <v>9.653968725651231E-2</v>
       </c>
       <c r="F8">
         <v>7</v>

--- a/riskuy.xlsx
+++ b/riskuy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TL Pendanaan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0209F9DF-93A2-423C-B103-6DE09C4D21CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ABDF1596-5EDE-4CCE-8175-109482ED6ABE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/riskuy.xlsx
+++ b/riskuy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TL Pendanaan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ABDF1596-5EDE-4CCE-8175-109482ED6ABE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A94A5B53-4644-4BBA-8A42-9D265D07606B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -66,10 +66,10 @@
     <t>Cpu_s2l</t>
   </si>
   <si>
+    <t>Hansyah_S2l</t>
+  </si>
+  <si>
     <t>EDN_S2l</t>
-  </si>
-  <si>
-    <t>Hansyah_S2l</t>
   </si>
   <si>
     <t>Zakka_S2l</t>
@@ -461,7 +461,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E8"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -494,14 +494,14 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>7233217270</v>
+        <v>7442439054</v>
       </c>
       <c r="D2">
-        <v>831371019</v>
+        <v>887111589</v>
       </c>
       <c r="E2" s="1">
         <f>D2/C2</f>
-        <v>0.1149379298266261</v>
+        <v>0.11919635250801477</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -515,14 +515,14 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>2985583999</v>
+        <v>3081566235</v>
       </c>
       <c r="D3">
-        <v>337219452</v>
+        <v>350470555</v>
       </c>
       <c r="E3" s="1">
         <f t="shared" ref="E3:E8" si="0">D3/C3</f>
-        <v>0.11294924279904676</v>
+        <v>0.11373130683332529</v>
       </c>
       <c r="F3">
         <v>2</v>
@@ -536,14 +536,14 @@
         <v>9</v>
       </c>
       <c r="C4">
-        <v>3893666823</v>
+        <v>3995841125</v>
       </c>
       <c r="D4">
-        <v>417201143</v>
+        <v>437178785</v>
       </c>
       <c r="E4" s="1">
         <f t="shared" si="0"/>
-        <v>0.10714864983711012</v>
+        <v>0.10940845026715119</v>
       </c>
       <c r="F4">
         <v>3</v>
@@ -557,14 +557,14 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>1991255199</v>
+        <v>2042479922</v>
       </c>
       <c r="D5">
-        <v>212572570</v>
+        <v>218250286</v>
       </c>
       <c r="E5" s="1">
         <f t="shared" si="0"/>
-        <v>0.10675305209837145</v>
+        <v>0.10685553559140445</v>
       </c>
       <c r="F5">
         <v>4</v>
@@ -578,14 +578,14 @@
         <v>11</v>
       </c>
       <c r="C6">
-        <v>1981408169</v>
+        <v>7531470001</v>
       </c>
       <c r="D6">
-        <v>205479337</v>
+        <v>795868021</v>
       </c>
       <c r="E6" s="1">
         <f t="shared" si="0"/>
-        <v>0.10370368923214024</v>
+        <v>0.10567233500157708</v>
       </c>
       <c r="F6">
         <v>5</v>
@@ -599,14 +599,14 @@
         <v>12</v>
       </c>
       <c r="C7">
-        <v>7356278731</v>
+        <v>2047822376</v>
       </c>
       <c r="D7">
-        <v>735906523</v>
+        <v>211943320</v>
       </c>
       <c r="E7" s="1">
         <f t="shared" si="0"/>
-        <v>0.1000378791927535</v>
+        <v>0.10349692555561762</v>
       </c>
       <c r="F7">
         <v>6</v>
@@ -620,14 +620,14 @@
         <v>13</v>
       </c>
       <c r="C8">
-        <v>7173980429</v>
+        <v>7374789257</v>
       </c>
       <c r="D8">
-        <v>692573827</v>
+        <v>748361716</v>
       </c>
       <c r="E8" s="1">
         <f t="shared" si="0"/>
-        <v>9.653968725651231E-2</v>
+        <v>0.10147567475093207</v>
       </c>
       <c r="F8">
         <v>7</v>
